--- a/_files/requirements/master_data/master-template.xlsx
+++ b/_files/requirements/master_data/master-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045452\Documents\GitHub\mosip-docs.wiki\_files\requirements\master_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF56A0C-8C5B-4C54-A522-A04608071FE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA11022C-4D84-48F3-9161-C205A5AF6869}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2987" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3167" uniqueCount="675">
   <si>
     <t>id</t>
   </si>
@@ -2866,6 +2866,120 @@
   </si>
   <si>
     <t>SMS d'échec de révocation de VID</t>
+  </si>
+  <si>
+    <t>RS_UIN_UPDATE_SUCCESS_EMAIL</t>
+  </si>
+  <si>
+    <t>RS_UIN_UPDATE_SUCCESS_EMAIL_SUB</t>
+  </si>
+  <si>
+    <t>RS_UIN_UPDATE_SUCCESS_SMS</t>
+  </si>
+  <si>
+    <t>Hi $fullName_eng,
+Your request for "UIN Update" has been successfully placed. Your RID (Req Number) is $RID for tracking.
+Thank You!</t>
+  </si>
+  <si>
+    <t>$fullName_ara،
+تم وضع طلبك لـ "تحديث UIN" بنجاح. RID الخاص بك (رقم الطلب) هو $RID للتتبع.
+شكرا!</t>
+  </si>
+  <si>
+    <t>Bonjour $fullName_fra,
+Votre demande de «mise à jour UIN» a été envoyée avec succès. Votre RID (numéro de demande) est $RID pour le suivi.
+Merci!</t>
+  </si>
+  <si>
+    <t>UIN Update Request Placed Successfully</t>
+  </si>
+  <si>
+    <t>تم وضع طلب تحديث UIN بنجاح</t>
+  </si>
+  <si>
+    <t>Demande de mise à jour UIN placée avec succès</t>
+  </si>
+  <si>
+    <t>UIN Update Request Placed Successfully Email</t>
+  </si>
+  <si>
+    <t>UIN Update Request Placed Successfully Email Subject</t>
+  </si>
+  <si>
+    <t>UIN Update Request Placed Successfully SMS</t>
+  </si>
+  <si>
+    <t>E-mail de demande de mise à jour UIN placé avec succès</t>
+  </si>
+  <si>
+    <t>تم تحديث طلب تحديث UIN بنجاح</t>
+  </si>
+  <si>
+    <t>تم وضع طلب تحديث UIN بنجاح بالبريد الإلكتروني</t>
+  </si>
+  <si>
+    <t>Sujet de la demande de mise à jour UIN placé avec succès</t>
+  </si>
+  <si>
+    <t>Demande de mise à jour UIN placée avec succès SMS</t>
+  </si>
+  <si>
+    <t>RS_UIN_UPDATE_FAILURE_EMAIL</t>
+  </si>
+  <si>
+    <t>RS_UIN_UPDATE_FAILURE_EMAIL_SUB</t>
+  </si>
+  <si>
+    <t>RS_UIN_UPDATE_FAILURE_SMS</t>
+  </si>
+  <si>
+    <t>UIN Update Request Failed</t>
+  </si>
+  <si>
+    <t>Hi $fullName_eng,
+We were unable to process your "UIN Update" request. Please try again later.
+Thank You!</t>
+  </si>
+  <si>
+    <t>$fullName_ara،
+لم نتمكن من معالجة طلبك "تحديث UIN". الرجاء معاودة المحاولة في وقت لاحق.
+شكرا!</t>
+  </si>
+  <si>
+    <t>Bonjour $fullName_fra,
+Nous n'avons pas pu traiter votre demande de «mise à jour UIN». Veuillez réessayer plus tard.
+Merci!</t>
+  </si>
+  <si>
+    <t>Échec de la demande de mise à jour UIN</t>
+  </si>
+  <si>
+    <t>فشل طلب تحديث UIN</t>
+  </si>
+  <si>
+    <t>UIN Update Request Failed Email</t>
+  </si>
+  <si>
+    <t>UIN Update Request Failed Email Subject</t>
+  </si>
+  <si>
+    <t>UIN Update Request Failed SMS</t>
+  </si>
+  <si>
+    <t>E-mail d'échec de la demande de mise à jour UIN</t>
+  </si>
+  <si>
+    <t>Échec de la demande de mise à jour de l'UIN</t>
+  </si>
+  <si>
+    <t>فشل طلب تحديث UIN موضوع البريد الإلكتروني</t>
+  </si>
+  <si>
+    <t>فشل طلب تحديث UIN SMS</t>
+  </si>
+  <si>
+    <t>Echec de la demande de mise à jour UIN SMS</t>
   </si>
 </sst>
 </file>
@@ -3718,11 +3832,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M308"/>
+  <dimension ref="A1:M326"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1048551" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A309" sqref="A309:XFD1048576"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16065,6 +16179,744 @@
         <v>19</v>
       </c>
       <c r="M308" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A309" s="3">
+        <v>1205</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="D309" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E309" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F309" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="G309" s="3">
+        <v>10006</v>
+      </c>
+      <c r="H309" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="I309" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="J309" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K309" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L309" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M309" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" ht="87" x14ac:dyDescent="0.35">
+      <c r="A310" s="3">
+        <v>1205</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="C310" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="D310" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E310" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F310" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="G310" s="3">
+        <v>10006</v>
+      </c>
+      <c r="H310" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="I310" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="J310" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K310" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L310" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M310" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" ht="116" x14ac:dyDescent="0.35">
+      <c r="A311" s="3">
+        <v>1205</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="D311" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E311" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F311" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="G311" s="3">
+        <v>10006</v>
+      </c>
+      <c r="H311" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="I311" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="J311" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K311" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L311" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M311" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A312" s="3">
+        <v>1206</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="C312" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="D312" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E312" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F312" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="G312" s="3">
+        <v>10006</v>
+      </c>
+      <c r="H312" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="I312" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="J312" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K312" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L312" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M312" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A313" s="3">
+        <v>1206</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="C313" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="D313" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E313" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F313" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="G313" s="3">
+        <v>10006</v>
+      </c>
+      <c r="H313" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="I313" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="J313" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K313" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L313" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M313" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A314" s="3">
+        <v>1206</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="D314" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E314" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F314" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="G314" s="3">
+        <v>10006</v>
+      </c>
+      <c r="H314" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="I314" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="J314" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K314" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L314" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M314" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A315" s="3">
+        <v>1207</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="D315" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E315" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F315" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="G315" s="3">
+        <v>10006</v>
+      </c>
+      <c r="H315" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="I315" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="J315" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K315" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L315" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M315" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13" ht="87" x14ac:dyDescent="0.35">
+      <c r="A316" s="3">
+        <v>1207</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="D316" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E316" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F316" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="G316" s="3">
+        <v>10006</v>
+      </c>
+      <c r="H316" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="I316" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="J316" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K316" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L316" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M316" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" ht="116" x14ac:dyDescent="0.35">
+      <c r="A317" s="3">
+        <v>1207</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="C317" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="D317" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E317" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F317" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="G317" s="3">
+        <v>10006</v>
+      </c>
+      <c r="H317" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="I317" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="J317" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K317" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L317" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M317" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13" ht="87" x14ac:dyDescent="0.35">
+      <c r="A318" s="3">
+        <v>1208</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="D318" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E318" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F318" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="G318" s="3">
+        <v>10006</v>
+      </c>
+      <c r="H318" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="I318" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="J318" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K318" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L318" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M318" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13" ht="87" x14ac:dyDescent="0.35">
+      <c r="A319" s="3">
+        <v>1208</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="C319" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D319" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E319" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F319" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="G319" s="3">
+        <v>10006</v>
+      </c>
+      <c r="H319" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="I319" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="J319" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K319" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L319" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M319" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A320" s="3">
+        <v>1208</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="C320" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="D320" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E320" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F320" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="G320" s="3">
+        <v>10006</v>
+      </c>
+      <c r="H320" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="I320" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="J320" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K320" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L320" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M320" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A321" s="3">
+        <v>1209</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="C321" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="D321" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E321" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F321" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="G321" s="3">
+        <v>10006</v>
+      </c>
+      <c r="H321" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="I321" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="J321" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K321" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L321" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M321" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A322" s="3">
+        <v>1209</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="D322" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E322" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F322" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="G322" s="3">
+        <v>10006</v>
+      </c>
+      <c r="H322" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="I322" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="J322" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K322" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L322" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M322" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A323" s="3">
+        <v>1209</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="D323" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E323" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F323" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="G323" s="3">
+        <v>10006</v>
+      </c>
+      <c r="H323" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="I323" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="J323" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K323" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L323" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M323" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" ht="87" x14ac:dyDescent="0.35">
+      <c r="A324" s="3">
+        <v>1210</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="C324" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="D324" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E324" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F324" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="G324" s="3">
+        <v>10006</v>
+      </c>
+      <c r="H324" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="I324" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="J324" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K324" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L324" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M324" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" ht="87" x14ac:dyDescent="0.35">
+      <c r="A325" s="3">
+        <v>1210</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="D325" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E325" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F325" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="G325" s="3">
+        <v>10006</v>
+      </c>
+      <c r="H325" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="I325" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="J325" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K325" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L325" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M325" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A326" s="3">
+        <v>1210</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="D326" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E326" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F326" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="G326" s="3">
+        <v>10006</v>
+      </c>
+      <c r="H326" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="I326" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="J326" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K326" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L326" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M326" s="3" t="s">
         <v>20</v>
       </c>
     </row>
